--- a/AbilityStruct.xlsx
+++ b/AbilityStruct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="能力" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="292">
   <si>
     <t>定义</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -644,10 +644,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>计时器时间间隔,默认-1,非计时器修饰器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修饰器特性描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -690,298 +686,369 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Properties</t>
+    <t>属性修改,常用类型,number(int,float),string,bool,enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OnAttacked </t>
+  </si>
+  <si>
+    <t>当拥有modifier的单位被攻击时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnAttackLanded </t>
+  </si>
+  <si>
+    <t>当拥有modifier的单位攻击到某个目标时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnAttackStart </t>
+  </si>
+  <si>
+    <t>当拥有modifier的单位开始攻击某个目标</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnCreated </t>
+  </si>
+  <si>
+    <t>当modifier被创建时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnDealDamage </t>
+  </si>
+  <si>
+    <t>当拥有modifier的单位施加伤害的时候</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnDeath </t>
+  </si>
+  <si>
+    <t>当拥有modifier的单位死亡的时候</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnDestroy </t>
+  </si>
+  <si>
+    <t>当这个modifier被移除的时候</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnOrbFire </t>
+  </si>
+  <si>
+    <t>当法球modifier的法球被释放的时候</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnOrbImpact </t>
+  </si>
+  <si>
+    <t>当法球modifier的法球命中目标之后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnTakeDamage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">当拥有modifier的单位受到伤害的时候 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnInterval </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*DamageType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>对目标造成伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cooldown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaCost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialArgs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量列表,可指定常量,也可指定变量(引用Excel)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">循环执行定时器操作.配合Duration(持续时间),TimeInterval(间隔). </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰器作用半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰器作用队伍类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修饰器作用目标类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPassive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPurgable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABILITY_BEHAVIOR_PASSIVE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射触发时间点,AnimationClip时间点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础事件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OnToggleOff </t>
+  </si>
+  <si>
+    <t>当切换为关闭状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnToggleOn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">当切换为开启状态 </t>
+  </si>
+  <si>
+    <t>Behavior=ABILITY_BEHAVIOR_TOGGLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior!=ABILITY_BEHAVIOR_PASSIVE,均有此事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior=ABILITY_BEHAVIOR_TOGGLE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behavior=ABILITY_BEHAVIOR_CHANNELLED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当持续性施法完成,无论成功与失败均触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*TargetTeam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*TargetType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标队伍类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当拥有者死亡,例:角色死亡爆装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage:伤害值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当弹道粒子特效命中单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射物跟踪单位,带碰撞检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性投射物,以点为目标,带碰撞检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当弹道粒子特效结束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OnProjectileExit </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OnProjectileEnter </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*TargetFlags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标标签,标签标识目标当前状态,可能变动的状态,例如无敌状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*RequiredLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求等级才能学习技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*MaxLevel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能最大等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClipPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClipName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClipSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪辑播放速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作剪辑文件名称,当能力绑定到其他角色时,检查角色是否包含动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoERadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示能力可作用范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计时器时间间隔,默认-1,无限期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被动,是否默认激活true,学习后自己动激活</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDebuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为增益魔法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为减益魔法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以解除效果,针对buff/debuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aura</t>
+  </si>
+  <si>
+    <t>仅在角色半径范围内有效,离开区域失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius:半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Teams/Types/Flags</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modify:修饰器名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Properties(State)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>属性修改列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性修改,常用类型,number(int,float),string,bool,enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否被动,是否默认激活</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OnAttacked </t>
-  </si>
-  <si>
-    <t>当拥有modifier的单位被攻击时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnAttackLanded </t>
-  </si>
-  <si>
-    <t>当拥有modifier的单位攻击到某个目标时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnAttackStart </t>
-  </si>
-  <si>
-    <t>当拥有modifier的单位开始攻击某个目标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnCreated </t>
-  </si>
-  <si>
-    <t>当modifier被创建时</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnDealDamage </t>
-  </si>
-  <si>
-    <t>当拥有modifier的单位施加伤害的时候</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnDeath </t>
-  </si>
-  <si>
-    <t>当拥有modifier的单位死亡的时候</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnDestroy </t>
-  </si>
-  <si>
-    <t>当这个modifier被移除的时候</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnOrbFire </t>
-  </si>
-  <si>
-    <t>当法球modifier的法球被释放的时候</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnOrbImpact </t>
-  </si>
-  <si>
-    <t>当法球modifier的法球命中目标之后</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnTakeDamage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">当拥有modifier的单位受到伤害的时候 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnInterval </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*DamageType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>对目标造成伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooldown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManaCost</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力消耗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialArgs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量列表,可指定常量,也可指定变量(引用Excel)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CastRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">循环执行定时器操作.配合Duration(持续时间),TimeInterval(间隔). </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Radius</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Teams</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修饰器作用半径</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修饰器作用队伍类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Types</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>修饰器作用目标类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsPassive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsPurgable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可以解除效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsDeBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为增益魔法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为减益魔法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABILITY_BEHAVIOR_PASSIVE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behavior</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射触发时间点,AnimationClip时间点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础事件列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClipPoint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射范围,显示释放区域,以选择的点为中心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OnToggleOff </t>
-  </si>
-  <si>
-    <t>当切换为关闭状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OnToggleOn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">当切换为开启状态 </t>
-  </si>
-  <si>
-    <t>Behavior=ABILITY_BEHAVIOR_TOGGLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behavior!=ABILITY_BEHAVIOR_PASSIVE,均有此事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behavior=ABILITY_BEHAVIOR_TOGGLE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Behavior=ABILITY_BEHAVIOR_CHANNELLED</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当持续性施法完成,无论成功与失败均触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*TargetTeam</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*TargetType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标队伍类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当拥有者死亡,例:角色死亡爆装备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定特效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage:伤害值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当弹道粒子特效命中单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投射物跟踪单位,带碰撞检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线性投射物,以点为目标,带碰撞检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当弹道粒子特效结束</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OnProjectileExit </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OnProjectileEnter </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1130,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1162,6 +1229,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,15 +1243,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1190,9 +1255,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="标题 4" xfId="2" builtinId="19"/>
@@ -1497,31 +1567,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="16"/>
+      <c r="E1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1543,15 +1613,15 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>11</v>
@@ -1563,8 +1633,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="B5" s="22"/>
+    <row r="5" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
       <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1572,12 +1642,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>20</v>
@@ -1586,96 +1656,155 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="12" t="s">
-        <v>229</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="B7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" t="s">
         <v>250</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
         <v>224</v>
       </c>
-      <c r="B8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="B17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" t="s">
-        <v>221</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B25" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1693,29 +1822,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.25" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1723,37 +1852,37 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1761,18 +1890,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1780,10 +1909,10 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1791,29 +1920,29 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -1827,18 +1956,18 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.625" customWidth="1"/>
-    <col min="5" max="5" width="42.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" customWidth="1"/>
+    <col min="5" max="5" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1846,19 +1975,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>170</v>
       </c>
@@ -1872,12 +2001,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
         <v>163</v>
@@ -1886,12 +2015,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>164</v>
@@ -1900,12 +2029,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="E6" t="s">
         <v>166</v>
@@ -1914,15 +2043,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>173</v>
       </c>
@@ -1930,24 +2059,24 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B9" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
         <v>175</v>
@@ -1956,12 +2085,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
         <v>178</v>
@@ -1970,46 +2099,46 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
   </sheetData>
@@ -2026,66 +2155,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
         <v>188</v>
       </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2103,16 +2232,16 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2120,92 +2249,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>199</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>203</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>207</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>209</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>211</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>213</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>215</v>
       </c>
-      <c r="B10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>219</v>
-      </c>
       <c r="B12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2216,40 +2345,40 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -2263,7 +2392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -2277,7 +2406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -2297,12 +2426,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
@@ -2317,12 +2446,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -2337,12 +2466,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -2357,7 +2486,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -2371,7 +2500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
@@ -2385,18 +2514,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2416,24 +2562,24 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="24"/>
       <c r="E1" s="21" t="s">
         <v>64</v>
       </c>
@@ -2445,7 +2591,7 @@
       <c r="K1" s="21"/>
       <c r="L1" s="21"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2615,7 @@
       </c>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -2497,7 +2643,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>67</v>
       </c>
@@ -2525,7 +2671,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>68</v>
       </c>
@@ -2553,7 +2699,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>70</v>
       </c>
@@ -2577,7 +2723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -2601,11 +2747,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="15" t="s">
+    <row r="8" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -2619,7 +2765,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>84</v>
       </c>
@@ -2639,7 +2785,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>86</v>
       </c>
@@ -2661,7 +2807,7 @@
       </c>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>155</v>
       </c>
@@ -2685,11 +2831,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C12" s="16" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E12" s="10"/>
@@ -2709,9 +2855,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -2729,7 +2875,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="D14" s="7"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2744,7 +2890,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -2758,7 +2904,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -2774,7 +2920,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="5:12" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:12" ht="15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -2792,7 +2938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -2810,7 +2956,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -2828,7 +2974,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -2846,7 +2992,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -2864,7 +3010,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -2882,7 +3028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -2896,7 +3042,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -2910,7 +3056,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -2924,7 +3070,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -2938,7 +3084,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -2952,7 +3098,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -2966,7 +3112,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -2980,7 +3126,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -2990,7 +3136,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3000,7 +3146,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -3010,7 +3156,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
     </row>
-    <row r="33" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -3020,7 +3166,7 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
     </row>
-    <row r="34" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -3030,7 +3176,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -3040,7 +3186,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -3050,7 +3196,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -3062,15 +3208,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
